--- a/data/excel/Administration_AvenueManagement_CancellationCharges.xlsx
+++ b/data/excel/Administration_AvenueManagement_CancellationCharges.xlsx
@@ -1,17 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{224E006A-A6FC-472A-8487-B68B61958D14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A846B71-FE2B-4DAF-B3EF-A046A3D23135}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3390" yWindow="3510" windowWidth="25410" windowHeight="6570" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -623,8 +622,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AW2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O9" sqref="O9"/>
+    <sheetView tabSelected="1" topLeftCell="K1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M4" sqref="M4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
